--- a/Supplementary Data 1.xlsx
+++ b/Supplementary Data 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marco/Desktop/OneDrive/Publicacoes/Trabalhando/Morcegos Multicamada/Manuscript/Supplements/SD1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{783B3BA9-52C8-8049-996B-3BB85D8ED5C7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{AA48F9C7-8DA0-F946-8AE9-783FD46A7244}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{783B3BA9-52C8-8049-996B-3BB85D8ED5C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{1D2F4122-B53B-D344-AF68-F91ED40689AE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="32500" windowHeight="23880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,13 @@
   <definedNames>
     <definedName name="frug" localSheetId="3">links!$A$1:$B$864</definedName>
   </definedNames>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -44,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5332" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5854" uniqueCount="1061">
   <si>
     <t>Ardnic</t>
   </si>
@@ -3218,6 +3223,15 @@
   </si>
   <si>
     <t>link list (i.e., edge list) formatted for being analyzed in the package igraph for R. To use it, just save the data as a comma-delimited CSV file.</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Clespi</t>
+  </si>
+  <si>
+    <t>Artfla</t>
   </si>
 </sst>
 </file>
@@ -3642,2892 +3656,4863 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B462"/>
+  <dimension ref="A1:E462"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>512</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1" s="5" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>513</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E2" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>515</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E3" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>517</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E4" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>519</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E5" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>521</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E6" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>523</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>525</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>527</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E9" s="6" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>529</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>531</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>533</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>535</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E13" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>537</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E14" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>539</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E15" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>541</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E16" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>543</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E17" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>545</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E18" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>547</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E19" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>549</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E20" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>551</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E21" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>553</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E22" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>555</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E23" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E24" s="6" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>559</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E25" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>561</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E26" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>563</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E27" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>565</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E28" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>567</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E29" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>569</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E30" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>571</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E31" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>573</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E32" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>575</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E33" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>577</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E34" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>579</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E35" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>581</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E36" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>583</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E37" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>585</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E38" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>587</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E39" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>589</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E40" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>591</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E41" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>593</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E42" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>595</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E43" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>597</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E44" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>599</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E45" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>601</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E46" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>603</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E47" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>605</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E48" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>607</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E49" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>609</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E50" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>611</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E51" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>613</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E52" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>615</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E53" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>617</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E54" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>619</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E55" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>621</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E56" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>623</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E57" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>625</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E58" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>627</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E59" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>629</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E60" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>631</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E61" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>633</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E62" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>635</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E63" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>637</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E64" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>639</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E65" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>641</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E66" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>643</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E67" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>645</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E68" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>647</v>
       </c>
       <c r="B69" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E69" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>649</v>
       </c>
       <c r="B70" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E70" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>651</v>
       </c>
       <c r="B71" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E71" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>653</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E72" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>655</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E73" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>657</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E74" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>659</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E75" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>661</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E76" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>663</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E77" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E78" s="6" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="B79" s="4"/>
-    </row>
-    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B79" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="B80" s="4"/>
-    </row>
-    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B80" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="B81" s="4"/>
-    </row>
-    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B81" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="B82" s="6"/>
-    </row>
-    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B82" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="B83" s="4"/>
-    </row>
-    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B83" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D83" s="4"/>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="B84" s="4"/>
-    </row>
-    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B84" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D84" s="4"/>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="B85" s="4"/>
-    </row>
-    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B85" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="B86" s="4"/>
-    </row>
-    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B86" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="B87" s="4"/>
-    </row>
-    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B87" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="B88" s="4"/>
-    </row>
-    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B88" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="B89" s="4"/>
-    </row>
-    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B89" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="B90" s="4"/>
-    </row>
-    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B90" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="B91" s="4"/>
-    </row>
-    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B91" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="B92" s="4"/>
-    </row>
-    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B92" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="B93" s="4"/>
-    </row>
-    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B93" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="B94" s="4"/>
-    </row>
-    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B94" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="B95" s="4"/>
-    </row>
-    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B95" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="4"/>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="B96" s="4"/>
-    </row>
-    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B96" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D96" s="4"/>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="B97" s="4"/>
-    </row>
-    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B97" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="6"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="B98" s="4"/>
-    </row>
-    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B98" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="6"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="B99" s="4"/>
-    </row>
-    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B99" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D99" s="4"/>
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="B100" s="4"/>
-    </row>
-    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B100" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D100" s="4"/>
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="B101" s="4"/>
-    </row>
-    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B101" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="B102" s="4"/>
-    </row>
-    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B102" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="B103" s="4"/>
-    </row>
-    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B103" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D103" s="4"/>
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="B104" s="4"/>
-    </row>
-    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B104" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="B105" s="4"/>
-    </row>
-    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B105" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="6"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="B106" s="4"/>
-    </row>
-    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B106" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>1016</v>
       </c>
-      <c r="B107" s="4"/>
-    </row>
-    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B107" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="B108" s="4"/>
-    </row>
-    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B108" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D108" s="4"/>
+      <c r="E108" s="6"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="B109" s="6"/>
-    </row>
-    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B109" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="B110" s="6"/>
-    </row>
-    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B110" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="B111" s="6"/>
-    </row>
-    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B111" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="B112" s="6"/>
-    </row>
-    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B112" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="B113" s="6"/>
-    </row>
-    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B113" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="B114" s="6"/>
-    </row>
-    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B114" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="B115" s="6"/>
-    </row>
-    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B115" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="B116" s="6"/>
-    </row>
-    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B116" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="B117" s="6"/>
-    </row>
-    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B117" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="B118" s="6"/>
-    </row>
-    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B118" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="B119" s="6"/>
-    </row>
-    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B119" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="B120" s="6"/>
-    </row>
-    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B120" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="B121" s="6"/>
-    </row>
-    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B121" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>1051</v>
       </c>
-      <c r="B122" s="6"/>
-    </row>
-    <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B122" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="B123" s="6"/>
-    </row>
-    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B123" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="B124" s="6"/>
-    </row>
-    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B124" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="B125" s="6"/>
-    </row>
-    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B125" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="B126" s="6"/>
-    </row>
-    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B126" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="B127" s="6"/>
-    </row>
-    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B127" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="B128" s="6"/>
-    </row>
-    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B128" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="B129" s="6"/>
-    </row>
-    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B129" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="B130" s="6"/>
-    </row>
-    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B130" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="B131" s="6"/>
-    </row>
-    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B131" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="B132" s="6"/>
-    </row>
-    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B132" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="B133" s="6"/>
-    </row>
-    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B133" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="B134" s="6"/>
-    </row>
-    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B134" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="B135" s="6"/>
-    </row>
-    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B135" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="B136" s="6"/>
-    </row>
-    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B136" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="B137" s="6"/>
-    </row>
-    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B137" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="B138" s="6"/>
-    </row>
-    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B138" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>1017</v>
       </c>
-      <c r="B139" s="6"/>
-    </row>
-    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B139" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D139" s="6"/>
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="B140" s="6"/>
-    </row>
-    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B140" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="B141" s="6"/>
-    </row>
-    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B141" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="B142" s="6"/>
-    </row>
-    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B142" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="B143" s="6"/>
-    </row>
-    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B143" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="B144" s="6"/>
-    </row>
-    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B144" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="B145" s="6"/>
-    </row>
-    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B145" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="B146" s="6"/>
-    </row>
-    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B146" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="B147" s="6"/>
-    </row>
-    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B147" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="B148" s="6"/>
-    </row>
-    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B148" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="B149" s="6"/>
-    </row>
-    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B149" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="B150" s="6"/>
-    </row>
-    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B150" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="B151" s="6"/>
-    </row>
-    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B151" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="B152" s="6"/>
-    </row>
-    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B152" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="B153" s="6"/>
-    </row>
-    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B153" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="B154" s="6"/>
-    </row>
-    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B154" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="B155" s="6"/>
-    </row>
-    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B155" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="B156" s="6"/>
-    </row>
-    <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B156" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="B157" s="6"/>
-    </row>
-    <row r="158" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B157" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="B158" s="6"/>
-    </row>
-    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B158" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="B159" s="6"/>
-    </row>
-    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B159" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="B160" s="6"/>
-    </row>
-    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B160" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="B161" s="6"/>
-    </row>
-    <row r="162" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B161" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="B162" s="6"/>
-    </row>
-    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B162" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="B163" s="6"/>
-    </row>
-    <row r="164" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B163" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="B164" s="6"/>
-    </row>
-    <row r="165" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B164" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="B165" s="6"/>
-    </row>
-    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B165" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="B166" s="6"/>
-    </row>
-    <row r="167" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B166" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="B167" s="6"/>
-    </row>
-    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B167" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="B168" s="6"/>
-    </row>
-    <row r="169" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B168" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="B169" s="6"/>
-    </row>
-    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B169" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="B170" s="6"/>
-    </row>
-    <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B170" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="B171" s="6"/>
-    </row>
-    <row r="172" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B171" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="B172" s="6"/>
-    </row>
-    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B172" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>1018</v>
       </c>
-      <c r="B173" s="6"/>
-    </row>
-    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B173" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D173" s="6"/>
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="B174" s="6"/>
-    </row>
-    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B174" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="B175" s="6"/>
-    </row>
-    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B175" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="B176" s="6"/>
-    </row>
-    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B176" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>1019</v>
       </c>
-      <c r="B177" s="6"/>
-    </row>
-    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B177" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D177" s="6"/>
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="B178" s="6"/>
-    </row>
-    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B178" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="B179" s="6"/>
-    </row>
-    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B179" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="B180" s="6"/>
-    </row>
-    <row r="181" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B180" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="B181" s="6"/>
-    </row>
-    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B181" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="B182" s="6"/>
-    </row>
-    <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B182" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D182" s="6"/>
+      <c r="E182" s="4"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="B183" s="6"/>
-    </row>
-    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B183" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="B184" s="6"/>
-    </row>
-    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B184" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="B185" s="6"/>
-    </row>
-    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B185" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="B186" s="6"/>
-    </row>
-    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B186" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="B187" s="6"/>
-    </row>
-    <row r="188" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B187" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="B188" s="6"/>
-    </row>
-    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B188" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="B189" s="6"/>
-    </row>
-    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B189" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="B190" s="6"/>
-    </row>
-    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B190" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="B191" s="6"/>
-    </row>
-    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B191" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="B192" s="6"/>
-    </row>
-    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B192" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="B193" s="6"/>
-    </row>
-    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B193" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="B194" s="6"/>
-    </row>
-    <row r="195" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B194" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="B195" s="6"/>
-    </row>
-    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B195" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="B196" s="6"/>
-    </row>
-    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B196" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="B197" s="6"/>
-    </row>
-    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B197" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="B198" s="6"/>
-    </row>
-    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B198" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="B199" s="6"/>
-    </row>
-    <row r="200" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B199" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="B200" s="6"/>
-    </row>
-    <row r="201" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B200" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="B201" s="6"/>
-    </row>
-    <row r="202" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B201" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="B202" s="6"/>
-    </row>
-    <row r="203" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B202" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="B203" s="6"/>
-    </row>
-    <row r="204" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B203" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="B204" s="6"/>
-    </row>
-    <row r="205" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B204" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="B205" s="6"/>
-    </row>
-    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B205" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="B206" s="6"/>
-    </row>
-    <row r="207" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B206" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="B207" s="6"/>
-    </row>
-    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B207" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="B208" s="6"/>
-    </row>
-    <row r="209" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B208" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="B209" s="6"/>
-    </row>
-    <row r="210" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B209" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="B210" s="6"/>
-    </row>
-    <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B210" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="B211" s="6"/>
-    </row>
-    <row r="212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B211" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="B212" s="6"/>
-    </row>
-    <row r="213" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B212" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="B213" s="6"/>
-    </row>
-    <row r="214" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B213" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="B214" s="6"/>
-    </row>
-    <row r="215" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B214" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>1021</v>
       </c>
-      <c r="B215" s="6"/>
-    </row>
-    <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B215" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D215" s="6"/>
+      <c r="E215" s="4"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="B216" s="6"/>
-    </row>
-    <row r="217" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B216" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D216" s="6"/>
+      <c r="E216" s="4"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="B217" s="6"/>
-    </row>
-    <row r="218" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B217" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="D217" s="6"/>
+      <c r="E217" s="6"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>1023</v>
       </c>
-      <c r="B218" s="6"/>
-    </row>
-    <row r="219" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B218" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D218" s="6"/>
+      <c r="E218" s="4"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="B219" s="6"/>
-    </row>
-    <row r="220" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B219" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D219" s="6"/>
+      <c r="E219" s="6"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="B220" s="6"/>
-    </row>
-    <row r="221" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B220" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="B221" s="6"/>
-    </row>
-    <row r="222" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B221" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="B222" s="6"/>
-    </row>
-    <row r="223" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B222" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="B223" s="6"/>
-    </row>
-    <row r="224" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B223" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="B224" s="6"/>
-    </row>
-    <row r="225" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B224" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="B225" s="6"/>
-    </row>
-    <row r="226" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B225" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="B226" s="6"/>
-    </row>
-    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B226" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="B227" s="6"/>
-    </row>
-    <row r="228" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B227" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D227" s="6"/>
+      <c r="E227" s="6"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="B228" s="6"/>
-    </row>
-    <row r="229" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B228" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D228" s="6"/>
+      <c r="E228" s="6"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>803</v>
       </c>
-      <c r="B229" s="6"/>
-    </row>
-    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B229" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D229" s="6"/>
+      <c r="E229" s="6"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="B230" s="6"/>
-    </row>
-    <row r="231" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B230" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D230" s="6"/>
+      <c r="E230" s="6"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="B231" s="6"/>
-    </row>
-    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B231" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="B232" s="6"/>
-    </row>
-    <row r="233" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B232" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="B233" s="6"/>
-    </row>
-    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B233" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="B234" s="6"/>
-    </row>
-    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B234" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="B235" s="6"/>
-    </row>
-    <row r="236" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B235" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="B236" s="6"/>
-    </row>
-    <row r="237" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B236" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="B237" s="6"/>
-    </row>
-    <row r="238" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B237" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="B238" s="6"/>
-    </row>
-    <row r="239" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B238" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="B239" s="6"/>
-    </row>
-    <row r="240" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B239" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="B240" s="6"/>
-    </row>
-    <row r="241" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B240" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="B241" s="6"/>
-    </row>
-    <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B241" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="B242" s="6"/>
-    </row>
-    <row r="243" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B242" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="B243" s="6"/>
-    </row>
-    <row r="244" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B243" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="B244" s="6"/>
-    </row>
-    <row r="245" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B244" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="B245" s="6"/>
-    </row>
-    <row r="246" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B245" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="B246" s="6"/>
-    </row>
-    <row r="247" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B246" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="B247" s="6"/>
-    </row>
-    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B247" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="B248" s="6"/>
-    </row>
-    <row r="249" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B248" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="B249" s="6"/>
-    </row>
-    <row r="250" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B249" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="B250" s="6"/>
-    </row>
-    <row r="251" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B250" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="B251" s="6"/>
-    </row>
-    <row r="252" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B251" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D251" s="6"/>
+      <c r="E251" s="6"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="B252" s="6"/>
-    </row>
-    <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B252" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
         <v>827</v>
       </c>
-      <c r="B253" s="6"/>
-    </row>
-    <row r="254" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B253" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="B254" s="6"/>
-    </row>
-    <row r="255" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B254" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>829</v>
       </c>
-      <c r="B255" s="6"/>
-    </row>
-    <row r="256" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B255" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="B256" s="6"/>
-    </row>
-    <row r="257" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B256" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="B257" s="6"/>
-    </row>
-    <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B257" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="B258" s="6"/>
-    </row>
-    <row r="259" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B258" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D258" s="6"/>
+      <c r="E258" s="6"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="B259" s="6"/>
-    </row>
-    <row r="260" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B259" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D259" s="6"/>
+      <c r="E259" s="6"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="B260" s="6"/>
-    </row>
-    <row r="261" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B260" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D260" s="6"/>
+      <c r="E260" s="6"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="B261" s="6"/>
-    </row>
-    <row r="262" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B261" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D261" s="6"/>
+      <c r="E261" s="6"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="B262" s="6"/>
-    </row>
-    <row r="263" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B262" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
         <v>837</v>
       </c>
-      <c r="B263" s="6"/>
-    </row>
-    <row r="264" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B263" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D263" s="6"/>
+      <c r="E263" s="6"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="B264" s="6"/>
-    </row>
-    <row r="265" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B264" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D264" s="6"/>
+      <c r="E264" s="6"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
         <v>839</v>
       </c>
-      <c r="B265" s="6"/>
-    </row>
-    <row r="266" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B265" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D265" s="6"/>
+      <c r="E265" s="6"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="B266" s="6"/>
-    </row>
-    <row r="267" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B266" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D266" s="6"/>
+      <c r="E266" s="6"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>841</v>
       </c>
-      <c r="B267" s="6"/>
-    </row>
-    <row r="268" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B267" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D267" s="6"/>
+      <c r="E267" s="6"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="B268" s="6"/>
-    </row>
-    <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B268" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D268" s="6"/>
+      <c r="E268" s="6"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="B269" s="6"/>
-    </row>
-    <row r="270" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B269" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D269" s="6"/>
+      <c r="E269" s="6"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
         <v>1024</v>
       </c>
-      <c r="B270" s="6"/>
-    </row>
-    <row r="271" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B270" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D270" s="6"/>
+      <c r="E270" s="4"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="B271" s="6"/>
-    </row>
-    <row r="272" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B271" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D271" s="6"/>
+      <c r="E271" s="6"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
         <v>845</v>
       </c>
-      <c r="B272" s="6"/>
-    </row>
-    <row r="273" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B272" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D272" s="6"/>
+      <c r="E272" s="6"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="B273" s="6"/>
-    </row>
-    <row r="274" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B273" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D273" s="6"/>
+      <c r="E273" s="6"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="B274" s="6"/>
-    </row>
-    <row r="275" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B274" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D274" s="6"/>
+      <c r="E274" s="6"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
         <v>848</v>
       </c>
-      <c r="B275" s="6"/>
-    </row>
-    <row r="276" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B275" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D275" s="6"/>
+      <c r="E275" s="6"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="B276" s="6"/>
-    </row>
-    <row r="277" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B276" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D276" s="6"/>
+      <c r="E276" s="6"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="B277" s="6"/>
-    </row>
-    <row r="278" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B277" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D277" s="6"/>
+      <c r="E277" s="6"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
         <v>851</v>
       </c>
-      <c r="B278" s="6"/>
-    </row>
-    <row r="279" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B278" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
         <v>852</v>
       </c>
-      <c r="B279" s="6"/>
-    </row>
-    <row r="280" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B279" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="B280" s="6"/>
-    </row>
-    <row r="281" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B280" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D280" s="6"/>
+      <c r="E280" s="6"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
         <v>854</v>
       </c>
-      <c r="B281" s="6"/>
-    </row>
-    <row r="282" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B281" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D281" s="6"/>
+      <c r="E281" s="6"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
         <v>855</v>
       </c>
-      <c r="B282" s="6"/>
-    </row>
-    <row r="283" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B282" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D282" s="6"/>
+      <c r="E282" s="6"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="B283" s="6"/>
-    </row>
-    <row r="284" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B283" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D283" s="6"/>
+      <c r="E283" s="6"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="B284" s="6"/>
-    </row>
-    <row r="285" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B284" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D284" s="6"/>
+      <c r="E284" s="6"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
         <v>858</v>
       </c>
-      <c r="B285" s="6"/>
-    </row>
-    <row r="286" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B285" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D285" s="6"/>
+      <c r="E285" s="6"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="B286" s="6"/>
-    </row>
-    <row r="287" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B286" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D286" s="6"/>
+      <c r="E286" s="6"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
         <v>860</v>
       </c>
-      <c r="B287" s="6"/>
-    </row>
-    <row r="288" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B287" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D287" s="6"/>
+      <c r="E287" s="6"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="B288" s="6"/>
-    </row>
-    <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B288" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D288" s="6"/>
+      <c r="E288" s="6"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="B289" s="6"/>
-    </row>
-    <row r="290" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B289" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D289" s="6"/>
+      <c r="E289" s="6"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
         <v>863</v>
       </c>
-      <c r="B290" s="6"/>
-    </row>
-    <row r="291" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B290" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D290" s="6"/>
+      <c r="E290" s="6"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>864</v>
       </c>
-      <c r="B291" s="6"/>
-    </row>
-    <row r="292" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B291" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D291" s="6"/>
+      <c r="E291" s="6"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
         <v>865</v>
       </c>
-      <c r="B292" s="6"/>
-    </row>
-    <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B292" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D292" s="6"/>
+      <c r="E292" s="6"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
         <v>866</v>
       </c>
-      <c r="B293" s="6"/>
-    </row>
-    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B293" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D293" s="6"/>
+      <c r="E293" s="6"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="B294" s="6"/>
-    </row>
-    <row r="295" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B294" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D294" s="6"/>
+      <c r="E294" s="6"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
         <v>868</v>
       </c>
-      <c r="B295" s="6"/>
-    </row>
-    <row r="296" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B295" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D295" s="6"/>
+      <c r="E295" s="6"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
         <v>869</v>
       </c>
-      <c r="B296" s="6"/>
-    </row>
-    <row r="297" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B296" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D296" s="6"/>
+      <c r="E296" s="6"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
         <v>870</v>
       </c>
-      <c r="B297" s="6"/>
-    </row>
-    <row r="298" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B297" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D297" s="6"/>
+      <c r="E297" s="6"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
         <v>871</v>
       </c>
-      <c r="B298" s="6"/>
-    </row>
-    <row r="299" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B298" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D298" s="6"/>
+      <c r="E298" s="6"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
         <v>872</v>
       </c>
-      <c r="B299" s="6"/>
-    </row>
-    <row r="300" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B299" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D299" s="6"/>
+      <c r="E299" s="6"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
         <v>873</v>
       </c>
-      <c r="B300" s="6"/>
-    </row>
-    <row r="301" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B300" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D300" s="6"/>
+      <c r="E300" s="6"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="B301" s="6"/>
-    </row>
-    <row r="302" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B301" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D301" s="6"/>
+      <c r="E301" s="6"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="6" t="s">
         <v>875</v>
       </c>
-      <c r="B302" s="6"/>
-    </row>
-    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B302" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D302" s="6"/>
+      <c r="E302" s="6"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="B303" s="6"/>
-    </row>
-    <row r="304" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B303" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D303" s="6"/>
+      <c r="E303" s="6"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
         <v>877</v>
       </c>
-      <c r="B304" s="6"/>
-    </row>
-    <row r="305" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B304" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D304" s="6"/>
+      <c r="E304" s="6"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
         <v>878</v>
       </c>
-      <c r="B305" s="6"/>
-    </row>
-    <row r="306" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B305" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D305" s="6"/>
+      <c r="E305" s="6"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="B306" s="6"/>
-    </row>
-    <row r="307" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B306" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D306" s="6"/>
+      <c r="E306" s="6"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="B307" s="6"/>
-    </row>
-    <row r="308" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B307" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D307" s="6"/>
+      <c r="E307" s="6"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
         <v>881</v>
       </c>
-      <c r="B308" s="6"/>
-    </row>
-    <row r="309" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B308" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D308" s="6"/>
+      <c r="E308" s="6"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
         <v>882</v>
       </c>
-      <c r="B309" s="6"/>
-    </row>
-    <row r="310" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B309" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D309" s="6"/>
+      <c r="E309" s="6"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="B310" s="6"/>
-    </row>
-    <row r="311" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B310" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D310" s="6"/>
+      <c r="E310" s="6"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
         <v>884</v>
       </c>
-      <c r="B311" s="6"/>
-    </row>
-    <row r="312" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B311" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D311" s="6"/>
+      <c r="E311" s="6"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="B312" s="6"/>
-    </row>
-    <row r="313" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B312" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D312" s="6"/>
+      <c r="E312" s="6"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
         <v>886</v>
       </c>
-      <c r="B313" s="6"/>
-    </row>
-    <row r="314" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B313" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D313" s="6"/>
+      <c r="E313" s="6"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
         <v>887</v>
       </c>
-      <c r="B314" s="6"/>
-    </row>
-    <row r="315" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B314" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D314" s="6"/>
+      <c r="E314" s="6"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="B315" s="6"/>
-    </row>
-    <row r="316" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B315" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D315" s="6"/>
+      <c r="E315" s="6"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="B316" s="6"/>
-    </row>
-    <row r="317" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B316" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D316" s="6"/>
+      <c r="E316" s="6"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
         <v>890</v>
       </c>
-      <c r="B317" s="6"/>
-    </row>
-    <row r="318" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B317" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D317" s="6"/>
+      <c r="E317" s="6"/>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="B318" s="6"/>
-    </row>
-    <row r="319" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B318" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D318" s="6"/>
+      <c r="E318" s="6"/>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
         <v>892</v>
       </c>
-      <c r="B319" s="6"/>
-    </row>
-    <row r="320" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B319" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D319" s="6"/>
+      <c r="E319" s="6"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="B320" s="6"/>
-    </row>
-    <row r="321" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B320" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D320" s="6"/>
+      <c r="E320" s="6"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
         <v>894</v>
       </c>
-      <c r="B321" s="6"/>
-    </row>
-    <row r="322" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B321" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D321" s="6"/>
+      <c r="E321" s="6"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="B322" s="6"/>
-    </row>
-    <row r="323" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B322" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D322" s="6"/>
+      <c r="E322" s="6"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
         <v>896</v>
       </c>
-      <c r="B323" s="6"/>
-    </row>
-    <row r="324" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B323" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D323" s="6"/>
+      <c r="E323" s="6"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
         <v>897</v>
       </c>
-      <c r="B324" s="6"/>
-    </row>
-    <row r="325" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B324" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D324" s="6"/>
+      <c r="E324" s="6"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
         <v>898</v>
       </c>
-      <c r="B325" s="6"/>
-    </row>
-    <row r="326" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B325" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D325" s="6"/>
+      <c r="E325" s="6"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="6" t="s">
         <v>899</v>
       </c>
-      <c r="B326" s="6"/>
-    </row>
-    <row r="327" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B326" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D326" s="6"/>
+      <c r="E326" s="6"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="6" t="s">
         <v>900</v>
       </c>
-      <c r="B327" s="6"/>
-    </row>
-    <row r="328" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B327" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D327" s="6"/>
+      <c r="E327" s="6"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="6" t="s">
         <v>901</v>
       </c>
-      <c r="B328" s="6"/>
-    </row>
-    <row r="329" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B328" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D328" s="6"/>
+      <c r="E328" s="6"/>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
         <v>902</v>
       </c>
-      <c r="B329" s="6"/>
-    </row>
-    <row r="330" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B329" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D329" s="6"/>
+      <c r="E329" s="6"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="B330" s="6"/>
-    </row>
-    <row r="331" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B330" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D330" s="6"/>
+      <c r="E330" s="6"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="6" t="s">
         <v>904</v>
       </c>
-      <c r="B331" s="6"/>
-    </row>
-    <row r="332" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B331" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D331" s="6"/>
+      <c r="E331" s="6"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="6" t="s">
         <v>905</v>
       </c>
-      <c r="B332" s="6"/>
-    </row>
-    <row r="333" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B332" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D332" s="6"/>
+      <c r="E332" s="6"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="B333" s="6"/>
-    </row>
-    <row r="334" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B333" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D333" s="6"/>
+      <c r="E333" s="4"/>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="6" t="s">
         <v>906</v>
       </c>
-      <c r="B334" s="6"/>
-    </row>
-    <row r="335" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B334" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D334" s="6"/>
+      <c r="E334" s="6"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="6" t="s">
         <v>907</v>
       </c>
-      <c r="B335" s="6"/>
-    </row>
-    <row r="336" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B335" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D335" s="6"/>
+      <c r="E335" s="6"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="6" t="s">
         <v>908</v>
       </c>
-      <c r="B336" s="6"/>
-    </row>
-    <row r="337" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B336" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D336" s="6"/>
+      <c r="E336" s="6"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="6" t="s">
         <v>909</v>
       </c>
-      <c r="B337" s="6"/>
-    </row>
-    <row r="338" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B337" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D337" s="6"/>
+      <c r="E337" s="6"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="6" t="s">
         <v>910</v>
       </c>
-      <c r="B338" s="6"/>
-    </row>
-    <row r="339" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B338" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D338" s="6"/>
+      <c r="E338" s="6"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="B339" s="6"/>
-    </row>
-    <row r="340" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B339" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D339" s="6"/>
+      <c r="E339" s="6"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="6" t="s">
         <v>912</v>
       </c>
-      <c r="B340" s="6"/>
-    </row>
-    <row r="341" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B340" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D340" s="6"/>
+      <c r="E340" s="6"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="6" t="s">
         <v>913</v>
       </c>
-      <c r="B341" s="6"/>
-    </row>
-    <row r="342" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B341" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D341" s="6"/>
+      <c r="E341" s="6"/>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="6" t="s">
         <v>914</v>
       </c>
-      <c r="B342" s="6"/>
-    </row>
-    <row r="343" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B342" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D342" s="6"/>
+      <c r="E342" s="6"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="6" t="s">
         <v>915</v>
       </c>
-      <c r="B343" s="6"/>
-    </row>
-    <row r="344" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B343" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D343" s="6"/>
+      <c r="E343" s="6"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="6" t="s">
         <v>916</v>
       </c>
-      <c r="B344" s="6"/>
-    </row>
-    <row r="345" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B344" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D344" s="6"/>
+      <c r="E344" s="6"/>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="6" t="s">
         <v>917</v>
       </c>
-      <c r="B345" s="6"/>
-    </row>
-    <row r="346" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B345" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D345" s="6"/>
+      <c r="E345" s="6"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
         <v>1025</v>
       </c>
-      <c r="B346" s="6"/>
-    </row>
-    <row r="347" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B346" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D346" s="6"/>
+      <c r="E346" s="4"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="6" t="s">
         <v>918</v>
       </c>
-      <c r="B347" s="6"/>
-    </row>
-    <row r="348" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B347" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D347" s="6"/>
+      <c r="E347" s="6"/>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="6" t="s">
         <v>919</v>
       </c>
-      <c r="B348" s="6"/>
-    </row>
-    <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B348" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D348" s="6"/>
+      <c r="E348" s="6"/>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="6" t="s">
         <v>920</v>
       </c>
-      <c r="B349" s="6"/>
-    </row>
-    <row r="350" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B349" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D349" s="6"/>
+      <c r="E349" s="6"/>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="6" t="s">
         <v>921</v>
       </c>
-      <c r="B350" s="6"/>
-    </row>
-    <row r="351" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B350" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D350" s="6"/>
+      <c r="E350" s="6"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="6" t="s">
         <v>922</v>
       </c>
-      <c r="B351" s="6"/>
-    </row>
-    <row r="352" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B351" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D351" s="6"/>
+      <c r="E351" s="6"/>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="6" t="s">
         <v>923</v>
       </c>
-      <c r="B352" s="6"/>
-    </row>
-    <row r="353" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B352" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D352" s="6"/>
+      <c r="E352" s="6"/>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="B353" s="6"/>
-    </row>
-    <row r="354" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B353" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D353" s="6"/>
+      <c r="E353" s="6"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="B354" s="6"/>
-    </row>
-    <row r="355" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B354" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D354" s="6"/>
+      <c r="E354" s="4"/>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="6" t="s">
         <v>925</v>
       </c>
-      <c r="B355" s="6"/>
-    </row>
-    <row r="356" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B355" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D355" s="6"/>
+      <c r="E355" s="6"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="6" t="s">
         <v>926</v>
       </c>
-      <c r="B356" s="6"/>
-    </row>
-    <row r="357" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B356" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D356" s="6"/>
+      <c r="E356" s="6"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="6" t="s">
         <v>927</v>
       </c>
-      <c r="B357" s="6"/>
-    </row>
-    <row r="358" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B357" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D357" s="6"/>
+      <c r="E357" s="6"/>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B358" s="6"/>
-    </row>
-    <row r="359" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B358" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D358" s="6"/>
+      <c r="E358" s="6"/>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="6" t="s">
         <v>929</v>
       </c>
-      <c r="B359" s="6"/>
-    </row>
-    <row r="360" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B359" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D359" s="6"/>
+      <c r="E359" s="6"/>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="B360" s="6"/>
-    </row>
-    <row r="361" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B360" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D360" s="6"/>
+      <c r="E360" s="6"/>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="6" t="s">
         <v>931</v>
       </c>
-      <c r="B361" s="6"/>
-    </row>
-    <row r="362" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B361" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D361" s="6"/>
+      <c r="E361" s="6"/>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="6" t="s">
         <v>932</v>
       </c>
-      <c r="B362" s="6"/>
-    </row>
-    <row r="363" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B362" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D362" s="6"/>
+      <c r="E362" s="6"/>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="6" t="s">
         <v>933</v>
       </c>
-      <c r="B363" s="6"/>
-    </row>
-    <row r="364" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B363" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D363" s="6"/>
+      <c r="E363" s="6"/>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="6" t="s">
         <v>934</v>
       </c>
-      <c r="B364" s="6"/>
-    </row>
-    <row r="365" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B364" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D364" s="6"/>
+      <c r="E364" s="6"/>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="6" t="s">
         <v>935</v>
       </c>
-      <c r="B365" s="6"/>
-    </row>
-    <row r="366" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B365" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D365" s="6"/>
+      <c r="E365" s="6"/>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="6" t="s">
         <v>936</v>
       </c>
-      <c r="B366" s="6"/>
-    </row>
-    <row r="367" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B366" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D366" s="6"/>
+      <c r="E366" s="6"/>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="6" t="s">
         <v>937</v>
       </c>
-      <c r="B367" s="6"/>
-    </row>
-    <row r="368" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B367" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D367" s="6"/>
+      <c r="E367" s="6"/>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="6" t="s">
         <v>938</v>
       </c>
-      <c r="B368" s="6"/>
-    </row>
-    <row r="369" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B368" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D368" s="6"/>
+      <c r="E368" s="6"/>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="6" t="s">
         <v>939</v>
       </c>
-      <c r="B369" s="6"/>
-    </row>
-    <row r="370" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B369" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D369" s="6"/>
+      <c r="E369" s="6"/>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="6" t="s">
         <v>940</v>
       </c>
-      <c r="B370" s="6"/>
-    </row>
-    <row r="371" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B370" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D370" s="6"/>
+      <c r="E370" s="6"/>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="6" t="s">
         <v>941</v>
       </c>
-      <c r="B371" s="6"/>
-    </row>
-    <row r="372" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B371" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D371" s="6"/>
+      <c r="E371" s="6"/>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="6" t="s">
         <v>942</v>
       </c>
-      <c r="B372" s="6"/>
-    </row>
-    <row r="373" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B372" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D372" s="6"/>
+      <c r="E372" s="6"/>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="6" t="s">
         <v>943</v>
       </c>
-      <c r="B373" s="6"/>
-    </row>
-    <row r="374" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B373" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D373" s="6"/>
+      <c r="E373" s="6"/>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="6" t="s">
         <v>944</v>
       </c>
-      <c r="B374" s="6"/>
-    </row>
-    <row r="375" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B374" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D374" s="6"/>
+      <c r="E374" s="6"/>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="6" t="s">
         <v>945</v>
       </c>
-      <c r="B375" s="6"/>
-    </row>
-    <row r="376" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B375" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D375" s="6"/>
+      <c r="E375" s="6"/>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="6" t="s">
         <v>946</v>
       </c>
-      <c r="B376" s="6"/>
-    </row>
-    <row r="377" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B376" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D376" s="6"/>
+      <c r="E376" s="6"/>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="6" t="s">
         <v>947</v>
       </c>
-      <c r="B377" s="6"/>
-    </row>
-    <row r="378" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B377" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D377" s="6"/>
+      <c r="E377" s="6"/>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="6" t="s">
         <v>948</v>
       </c>
-      <c r="B378" s="6"/>
-    </row>
-    <row r="379" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B378" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D378" s="6"/>
+      <c r="E378" s="6"/>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="6" t="s">
         <v>949</v>
       </c>
-      <c r="B379" s="6"/>
-    </row>
-    <row r="380" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B379" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D379" s="6"/>
+      <c r="E379" s="6"/>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="6" t="s">
         <v>950</v>
       </c>
-      <c r="B380" s="6"/>
-    </row>
-    <row r="381" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B380" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D380" s="6"/>
+      <c r="E380" s="6"/>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="6" t="s">
         <v>951</v>
       </c>
-      <c r="B381" s="6"/>
-    </row>
-    <row r="382" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B381" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D381" s="6"/>
+      <c r="E381" s="6"/>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="6" t="s">
         <v>952</v>
       </c>
-      <c r="B382" s="6"/>
-    </row>
-    <row r="383" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B382" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D382" s="6"/>
+      <c r="E382" s="6"/>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="6" t="s">
         <v>953</v>
       </c>
-      <c r="B383" s="6"/>
-    </row>
-    <row r="384" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B383" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D383" s="6"/>
+      <c r="E383" s="6"/>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="6" t="s">
         <v>954</v>
       </c>
-      <c r="B384" s="6"/>
-    </row>
-    <row r="385" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B384" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D384" s="6"/>
+      <c r="E384" s="6"/>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="6" t="s">
         <v>955</v>
       </c>
-      <c r="B385" s="6"/>
-    </row>
-    <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B385" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D385" s="6"/>
+      <c r="E385" s="6"/>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="6" t="s">
         <v>956</v>
       </c>
-      <c r="B386" s="6"/>
-    </row>
-    <row r="387" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B386" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D386" s="6"/>
+      <c r="E386" s="6"/>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="6" t="s">
         <v>957</v>
       </c>
-      <c r="B387" s="6"/>
-    </row>
-    <row r="388" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B387" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D387" s="6"/>
+      <c r="E387" s="6"/>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="B388" s="6"/>
-    </row>
-    <row r="389" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B388" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D388" s="6"/>
+      <c r="E388" s="6"/>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="6" t="s">
         <v>959</v>
       </c>
-      <c r="B389" s="6"/>
-    </row>
-    <row r="390" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B389" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D389" s="6"/>
+      <c r="E389" s="6"/>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="6" t="s">
         <v>960</v>
       </c>
-      <c r="B390" s="6"/>
-    </row>
-    <row r="391" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B390" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D390" s="6"/>
+      <c r="E390" s="6"/>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="6" t="s">
         <v>961</v>
       </c>
-      <c r="B391" s="6"/>
-    </row>
-    <row r="392" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B391" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D391" s="6"/>
+      <c r="E391" s="6"/>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="6" t="s">
         <v>962</v>
       </c>
-      <c r="B392" s="6"/>
-    </row>
-    <row r="393" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B392" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D392" s="6"/>
+      <c r="E392" s="6"/>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="B393" s="6"/>
-    </row>
-    <row r="394" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B393" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D393" s="6"/>
+      <c r="E393" s="6"/>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="B394" s="6"/>
-    </row>
-    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B394" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D394" s="6"/>
+      <c r="E394" s="6"/>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="6" t="s">
         <v>965</v>
       </c>
-      <c r="B395" s="6"/>
-    </row>
-    <row r="396" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B395" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D395" s="6"/>
+      <c r="E395" s="6"/>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="B396" s="6"/>
-    </row>
-    <row r="397" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B396" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D396" s="6"/>
+      <c r="E396" s="6"/>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="6" t="s">
         <v>967</v>
       </c>
-      <c r="B397" s="6"/>
-    </row>
-    <row r="398" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B397" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D397" s="6"/>
+      <c r="E397" s="6"/>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="6" t="s">
         <v>968</v>
       </c>
-      <c r="B398" s="6"/>
-    </row>
-    <row r="399" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B398" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D398" s="6"/>
+      <c r="E398" s="6"/>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="6" t="s">
         <v>969</v>
       </c>
-      <c r="B399" s="6"/>
-    </row>
-    <row r="400" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B399" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D399" s="6"/>
+      <c r="E399" s="6"/>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="6" t="s">
         <v>970</v>
       </c>
-      <c r="B400" s="6"/>
-    </row>
-    <row r="401" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B400" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D400" s="6"/>
+      <c r="E400" s="6"/>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="6" t="s">
         <v>971</v>
       </c>
-      <c r="B401" s="6"/>
-    </row>
-    <row r="402" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B401" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D401" s="6"/>
+      <c r="E401" s="6"/>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="B402" s="6"/>
-    </row>
-    <row r="403" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B402" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D402" s="6"/>
+      <c r="E402" s="6"/>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="6" t="s">
         <v>973</v>
       </c>
-      <c r="B403" s="6"/>
-    </row>
-    <row r="404" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B403" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D403" s="6"/>
+      <c r="E403" s="6"/>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="6" t="s">
         <v>974</v>
       </c>
-      <c r="B404" s="6"/>
-    </row>
-    <row r="405" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B404" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D404" s="6"/>
+      <c r="E404" s="6"/>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="6" t="s">
         <v>975</v>
       </c>
-      <c r="B405" s="6"/>
-    </row>
-    <row r="406" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B405" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D405" s="6"/>
+      <c r="E405" s="6"/>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="6" t="s">
         <v>976</v>
       </c>
-      <c r="B406" s="6"/>
-    </row>
-    <row r="407" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B406" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D406" s="6"/>
+      <c r="E406" s="6"/>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="6" t="s">
         <v>977</v>
       </c>
-      <c r="B407" s="6"/>
-    </row>
-    <row r="408" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B407" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D407" s="6"/>
+      <c r="E407" s="6"/>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="6" t="s">
         <v>978</v>
       </c>
-      <c r="B408" s="6"/>
-    </row>
-    <row r="409" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B408" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D408" s="6"/>
+      <c r="E408" s="6"/>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="6" t="s">
         <v>979</v>
       </c>
-      <c r="B409" s="6"/>
-    </row>
-    <row r="410" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B409" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D409" s="6"/>
+      <c r="E409" s="6"/>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="6" t="s">
         <v>980</v>
       </c>
-      <c r="B410" s="6"/>
-    </row>
-    <row r="411" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B410" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D410" s="6"/>
+      <c r="E410" s="6"/>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="6" t="s">
         <v>981</v>
       </c>
-      <c r="B411" s="6"/>
-    </row>
-    <row r="412" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B411" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D411" s="6"/>
+      <c r="E411" s="6"/>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="6" t="s">
         <v>982</v>
       </c>
-      <c r="B412" s="6"/>
-    </row>
-    <row r="413" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B412" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D412" s="6"/>
+      <c r="E412" s="6"/>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="6" t="s">
         <v>983</v>
       </c>
-      <c r="B413" s="6"/>
-    </row>
-    <row r="414" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B413" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D413" s="6"/>
+      <c r="E413" s="6"/>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="6" t="s">
         <v>984</v>
       </c>
-      <c r="B414" s="6"/>
-    </row>
-    <row r="415" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B414" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D414" s="6"/>
+      <c r="E414" s="6"/>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="B415" s="6"/>
-    </row>
-    <row r="416" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B415" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D415" s="6"/>
+      <c r="E415" s="6"/>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="6" t="s">
         <v>986</v>
       </c>
-      <c r="B416" s="6"/>
-    </row>
-    <row r="417" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B416" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D416" s="6"/>
+      <c r="E416" s="6"/>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="6" t="s">
         <v>987</v>
       </c>
-      <c r="B417" s="6"/>
-    </row>
-    <row r="418" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B417" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D417" s="6"/>
+      <c r="E417" s="6"/>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="6" t="s">
         <v>988</v>
       </c>
-      <c r="B418" s="6"/>
-    </row>
-    <row r="419" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B418" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D418" s="6"/>
+      <c r="E418" s="6"/>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" s="6" t="s">
         <v>989</v>
       </c>
-      <c r="B419" s="6"/>
-    </row>
-    <row r="420" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B419" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D419" s="6"/>
+      <c r="E419" s="6"/>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" s="6" t="s">
         <v>990</v>
       </c>
-      <c r="B420" s="6"/>
-    </row>
-    <row r="421" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B420" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D420" s="6"/>
+      <c r="E420" s="6"/>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" s="6" t="s">
         <v>991</v>
       </c>
-      <c r="B421" s="6"/>
-    </row>
-    <row r="422" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B421" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D421" s="6"/>
+      <c r="E421" s="6"/>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="6" t="s">
         <v>992</v>
       </c>
-      <c r="B422" s="6"/>
-    </row>
-    <row r="423" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B422" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D422" s="6"/>
+      <c r="E422" s="6"/>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" s="6" t="s">
         <v>993</v>
       </c>
-      <c r="B423" s="6"/>
-    </row>
-    <row r="424" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B423" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D423" s="6"/>
+      <c r="E423" s="6"/>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" s="6" t="s">
         <v>994</v>
       </c>
-      <c r="B424" s="6"/>
-    </row>
-    <row r="425" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B424" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D424" s="6"/>
+      <c r="E424" s="6"/>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" s="6" t="s">
         <v>995</v>
       </c>
-      <c r="B425" s="6"/>
-    </row>
-    <row r="426" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B425" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D425" s="6"/>
+      <c r="E425" s="6"/>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" s="6" t="s">
         <v>996</v>
       </c>
-      <c r="B426" s="6"/>
-    </row>
-    <row r="427" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B426" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D426" s="6"/>
+      <c r="E426" s="6"/>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="6" t="s">
         <v>997</v>
       </c>
-      <c r="B427" s="6"/>
-    </row>
-    <row r="428" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B427" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D427" s="6"/>
+      <c r="E427" s="6"/>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" s="6" t="s">
         <v>998</v>
       </c>
-      <c r="B428" s="4"/>
-    </row>
-    <row r="429" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B428" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D428" s="4"/>
+      <c r="E428" s="6"/>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" s="4" t="s">
         <v>1027</v>
       </c>
-      <c r="B429" s="4"/>
-    </row>
-    <row r="430" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B429" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D429" s="4"/>
+      <c r="E429" s="4"/>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" s="6" t="s">
         <v>999</v>
       </c>
-      <c r="B430" s="4"/>
-    </row>
-    <row r="431" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B430" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D430" s="4"/>
+      <c r="E430" s="6"/>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="6" t="s">
         <v>1000</v>
       </c>
-      <c r="B431" s="4"/>
-    </row>
-    <row r="432" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B431" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D431" s="4"/>
+      <c r="E431" s="6"/>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" s="6" t="s">
         <v>1001</v>
       </c>
-      <c r="B432" s="4"/>
-    </row>
-    <row r="433" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B432" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D432" s="4"/>
+      <c r="E432" s="6"/>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" s="6" t="s">
         <v>1002</v>
       </c>
-      <c r="B433" s="4"/>
-    </row>
-    <row r="434" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B433" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D433" s="4"/>
+      <c r="E433" s="6"/>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" s="6" t="s">
         <v>1003</v>
       </c>
-      <c r="B434" s="4"/>
-    </row>
-    <row r="435" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B434" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D434" s="4"/>
+      <c r="E434" s="6"/>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="6" t="s">
         <v>1004</v>
       </c>
-      <c r="B435" s="4"/>
-    </row>
-    <row r="436" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B435" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D435" s="4"/>
+      <c r="E435" s="6"/>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="6" t="s">
         <v>1005</v>
       </c>
-      <c r="B436" s="4"/>
-    </row>
-    <row r="437" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B436" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D436" s="4"/>
+      <c r="E436" s="6"/>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="B437" s="4"/>
-    </row>
-    <row r="438" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B437" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D437" s="4"/>
+      <c r="E437" s="6"/>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="6" t="s">
         <v>1007</v>
       </c>
-      <c r="B438" s="4"/>
-    </row>
-    <row r="439" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B438" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D438" s="4"/>
+      <c r="E438" s="6"/>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="B439" s="4"/>
-    </row>
-    <row r="440" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B439" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D439" s="4"/>
+      <c r="E439" s="6"/>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" s="6" t="s">
         <v>1009</v>
       </c>
-      <c r="B440" s="4"/>
-    </row>
-    <row r="441" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B440" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D440" s="4"/>
+      <c r="E440" s="6"/>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="6" t="s">
         <v>1010</v>
       </c>
-      <c r="B441" s="4"/>
-    </row>
-    <row r="442" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B441" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D441" s="4"/>
+      <c r="E441" s="6"/>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" s="6" t="s">
         <v>1011</v>
       </c>
-      <c r="B442" s="4"/>
-    </row>
-    <row r="443" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B442" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D442" s="4"/>
+      <c r="E442" s="6"/>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" s="6" t="s">
         <v>1012</v>
       </c>
-      <c r="B443" s="4"/>
-    </row>
-    <row r="444" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B443" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D443" s="4"/>
+      <c r="E443" s="6"/>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" s="6" t="s">
         <v>1013</v>
       </c>
-      <c r="B444" s="4"/>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B444" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D444" s="4"/>
+      <c r="E444" s="6"/>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" s="2"/>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B445" s="2"/>
+      <c r="E445" s="2"/>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" s="2"/>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B446" s="2"/>
+      <c r="E446" s="2"/>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" s="2"/>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B447" s="2"/>
+      <c r="E447" s="2"/>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" s="2"/>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B448" s="2"/>
+      <c r="E448" s="2"/>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" s="2"/>
-    </row>
-    <row r="450" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B449" s="2"/>
+      <c r="E449" s="2"/>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450"/>
-    </row>
-    <row r="451" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B450"/>
+      <c r="E450"/>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451"/>
-    </row>
-    <row r="452" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B451"/>
+      <c r="E451"/>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452"/>
-    </row>
-    <row r="453" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B452"/>
+      <c r="E452"/>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453"/>
-    </row>
-    <row r="454" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B453"/>
+      <c r="E453"/>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454"/>
-    </row>
-    <row r="455" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B454"/>
+      <c r="E454"/>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455"/>
-    </row>
-    <row r="456" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B455"/>
+      <c r="E455"/>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456"/>
-    </row>
-    <row r="457" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B456"/>
+      <c r="E456"/>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457"/>
-    </row>
-    <row r="458" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B457"/>
+      <c r="E457"/>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458"/>
-    </row>
-    <row r="459" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B458"/>
+      <c r="E458"/>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459"/>
-    </row>
-    <row r="460" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B459"/>
+      <c r="E459"/>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460"/>
-    </row>
-    <row r="461" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B460"/>
+      <c r="E460"/>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461"/>
-    </row>
-    <row r="462" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B461"/>
+      <c r="E461"/>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462"/>
+      <c r="B462"/>
+      <c r="E462"/>
     </row>
   </sheetData>
   <sortState ref="A2:A462">
